--- a/08_Management/List_of_Deliverables-BCD1-0117_BCDCarpentryProject.xlsx
+++ b/08_Management/List_of_Deliverables-BCD1-0117_BCDCarpentryProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Deliverable's Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>User Manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress Report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,9 +677,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/08_Management/List_of_Deliverables-BCD1-0117_BCDCarpentryProject.xlsx
+++ b/08_Management/List_of_Deliverables-BCD1-0117_BCDCarpentryProject.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
-  <si>
-    <t>Deliverable's Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Delivered</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Source Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test Plan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Handover Document</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Project Proposal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,15 +80,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>User Manual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Progress Report</t>
+    <t>Final Status Report(Handover Document)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress Report(1,2,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Code (database scripts, web application)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database Structure Document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS Project document</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +151,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,12 +200,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -484,214 +512,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/08_Management/List_of_Deliverables-BCD1-0117_BCDCarpentryProject.xlsx
+++ b/08_Management/List_of_Deliverables-BCD1-0117_BCDCarpentryProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Delivered</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,14 @@
   </si>
   <si>
     <t>MS Project document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supervisor Meeting Minute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Meeting Minute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -744,6 +752,28 @@
         <v>18</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
